--- a/BackTest/2019-11-01 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-01 BackTest CTXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>8.500000000000014</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>8.235294117647078</v>
+      </c>
       <c r="L12" t="n">
         <v>90.72</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>8.800000000000011</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-44.82758620689636</v>
+      </c>
       <c r="L13" t="n">
         <v>90.76000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>8.800000000000011</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-30.43478260869541</v>
+      </c>
       <c r="L14" t="n">
         <v>90.50000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10.90000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>10.44776119402989</v>
+      </c>
       <c r="L15" t="n">
         <v>90.57000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>13.7</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-21.27659574468084</v>
+      </c>
       <c r="L16" t="n">
         <v>90.36</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>15.2</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>7.216494845360852</v>
+      </c>
       <c r="L17" t="n">
         <v>90.31</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>17.2</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>23.07692307692309</v>
+      </c>
       <c r="L18" t="n">
         <v>90.58000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>19.60000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-10.40000000000009</v>
+      </c>
       <c r="L19" t="n">
         <v>90.61000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>19.7</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-11.11111111111116</v>
+      </c>
       <c r="L20" t="n">
         <v>90.47000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>19.8</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-0.8849557522123405</v>
+      </c>
       <c r="L21" t="n">
         <v>90.32000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>21.69999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>16.27906976744185</v>
+      </c>
       <c r="L22" t="n">
         <v>90.50000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>21.69999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>11.52073732718895</v>
+        <v>16.27906976744185</v>
       </c>
       <c r="L23" t="n">
         <v>90.71000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>21.89999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.70370370370372</v>
+        <v>-1.818181818181846</v>
       </c>
       <c r="L24" t="n">
         <v>90.90000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.712041884816714</v>
+        <v>12.50000000000006</v>
       </c>
       <c r="L25" t="n">
         <v>90.74000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.712041884816714</v>
+        <v>-3.703703703703678</v>
       </c>
       <c r="L26" t="n">
         <v>90.86000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.210526315789462</v>
+        <v>-37.70491803278696</v>
       </c>
       <c r="L27" t="n">
         <v>90.83000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>23.59999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5524861878453515</v>
+        <v>-4.999999999999751</v>
       </c>
       <c r="L28" t="n">
         <v>90.57000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>23.59999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5524861878453515</v>
+        <v>-2.564102564102433</v>
       </c>
       <c r="L29" t="n">
         <v>90.55000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>24.29999999999998</v>
       </c>
       <c r="K30" t="n">
-        <v>-12.79069767441864</v>
+        <v>-15.55555555555567</v>
       </c>
       <c r="L30" t="n">
         <v>90.47000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>25.49999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>-18.47826086956527</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>90.28000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>25.49999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.76470588235296</v>
+        <v>-100</v>
       </c>
       <c r="L32" t="n">
         <v>89.90000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>25.49999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-10.17964071856291</v>
+        <v>-100</v>
       </c>
       <c r="L33" t="n">
         <v>89.52000000000002</v>
@@ -1962,7 +1984,7 @@
         <v>25.69999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-11.24260355029591</v>
+        <v>-100</v>
       </c>
       <c r="L34" t="n">
         <v>89.14000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>25.69999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-27.02702702702706</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>88.90000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>28.39999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>10.20408163265307</v>
+        <v>5.882352941176405</v>
       </c>
       <c r="L36" t="n">
         <v>88.93000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>29.89999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.20408163265307</v>
+        <v>-14.28571428571435</v>
       </c>
       <c r="L37" t="n">
         <v>88.81</v>
@@ -2166,7 +2188,7 @@
         <v>32.09999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-8.724832214765087</v>
+        <v>15.29411764705876</v>
       </c>
       <c r="L38" t="n">
         <v>88.94000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>32.09999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>8.800000000000079</v>
+        <v>25.64102564102561</v>
       </c>
       <c r="L39" t="n">
         <v>89.07000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>32.89999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>15.15151515151517</v>
+        <v>54.05405405405401</v>
       </c>
       <c r="L40" t="n">
         <v>89.35000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>34.59999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>2.702702702702646</v>
+        <v>25.27472527472522</v>
       </c>
       <c r="L41" t="n">
         <v>89.58000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="K42" t="n">
-        <v>-8.270676691729273</v>
+        <v>28.42105263157893</v>
       </c>
       <c r="L42" t="n">
         <v>89.85000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>35.3</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.29411764705875</v>
+        <v>27.0833333333334</v>
       </c>
       <c r="L43" t="n">
         <v>90.09</v>
@@ -2472,7 +2494,7 @@
         <v>35.49999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.352941176470591</v>
+        <v>28.57142857142855</v>
       </c>
       <c r="L44" t="n">
         <v>90.37000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>35.79999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7999999999999545</v>
+        <v>-2.702702702702744</v>
       </c>
       <c r="L45" t="n">
         <v>90.62000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>36.09999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>3.124999999999934</v>
+        <v>25.80645161290318</v>
       </c>
       <c r="L46" t="n">
         <v>90.63000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>36.09999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>3.124999999999934</v>
+        <v>-15.00000000000027</v>
       </c>
       <c r="L47" t="n">
         <v>90.79000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K48" t="n">
-        <v>3.124999999999934</v>
+        <v>-20.93023255813975</v>
       </c>
       <c r="L48" t="n">
         <v>90.70000000000002</v>
@@ -2727,7 +2749,7 @@
         <v>36.39999999999998</v>
       </c>
       <c r="K49" t="n">
-        <v>3.124999999999934</v>
+        <v>-48.57142857142885</v>
       </c>
       <c r="L49" t="n">
         <v>90.61</v>
@@ -2778,7 +2800,7 @@
         <v>36.79999999999997</v>
       </c>
       <c r="K50" t="n">
-        <v>5.600000000000029</v>
+        <v>-18.18181818181801</v>
       </c>
       <c r="L50" t="n">
         <v>90.40000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>36.79999999999997</v>
       </c>
       <c r="K51" t="n">
-        <v>16.81415929203547</v>
+        <v>-44.44444444444506</v>
       </c>
       <c r="L51" t="n">
         <v>90.36</v>
@@ -2880,7 +2902,7 @@
         <v>36.79999999999997</v>
       </c>
       <c r="K52" t="n">
-        <v>16.81415929203547</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L52" t="n">
         <v>90.28</v>
@@ -2931,7 +2953,7 @@
         <v>37.89999999999996</v>
       </c>
       <c r="K53" t="n">
-        <v>24.19354838709682</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L53" t="n">
         <v>90.34</v>
@@ -2982,7 +3004,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K54" t="n">
-        <v>25.20325203252046</v>
+        <v>27.27272727272798</v>
       </c>
       <c r="L54" t="n">
         <v>90.36999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>38.99999999999996</v>
       </c>
       <c r="K55" t="n">
-        <v>15.78947368421063</v>
+        <v>-24.13793103448256</v>
       </c>
       <c r="L55" t="n">
         <v>90.33</v>

--- a/BackTest/2019-11-01 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-01 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,1920 +394,1448 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>89.3</v>
+        <v>96.2</v>
       </c>
       <c r="D2" t="n">
-        <v>89.3</v>
+        <v>96.2</v>
       </c>
       <c r="E2" t="n">
-        <v>89.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>4855.0789</v>
+        <v>26622.7662</v>
       </c>
       <c r="G2" t="n">
-        <v>91.48833333333332</v>
+        <v>146304.1503</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>89.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>89.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>89.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>89.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>3423.8072</v>
+        <v>1594.6381</v>
       </c>
       <c r="G3" t="n">
-        <v>91.37333333333332</v>
+        <v>144709.5122</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>92.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>92.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>91.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>12362.5872</v>
+        <v>7212.4109</v>
       </c>
       <c r="G4" t="n">
-        <v>91.33</v>
+        <v>137497.1013</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>91.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="C5" t="n">
-        <v>91.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="D5" t="n">
-        <v>91.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="E5" t="n">
-        <v>91.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>19.0647</v>
       </c>
       <c r="G5" t="n">
-        <v>91.28</v>
+        <v>137516.166</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.200000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>91.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="C6" t="n">
-        <v>91.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="D6" t="n">
-        <v>91.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E6" t="n">
-        <v>91.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>91.20333333333335</v>
+        <v>137527.166</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.200000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>89.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>39335.6319</v>
+        <v>1722.649</v>
       </c>
       <c r="G7" t="n">
-        <v>91.11666666666669</v>
+        <v>135804.517</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.299999999999997</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>89.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>89.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>89.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>1168.0745</v>
+        <v>34641.5357</v>
       </c>
       <c r="G8" t="n">
-        <v>91.05333333333334</v>
+        <v>170446.0527</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>89.8</v>
+        <v>93.5</v>
       </c>
       <c r="D9" t="n">
-        <v>89.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>89.8</v>
+        <v>93.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5497.0197</v>
+        <v>8645.311900000001</v>
       </c>
       <c r="G9" t="n">
-        <v>90.95666666666668</v>
+        <v>161800.7408</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>91.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>91.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="E10" t="n">
-        <v>89.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>5054</v>
+        <v>53303.2999</v>
       </c>
       <c r="G10" t="n">
-        <v>90.92166666666667</v>
+        <v>108497.4409</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7.100000000000009</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C11" t="n">
-        <v>91.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D11" t="n">
-        <v>91.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="E11" t="n">
-        <v>91.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2997</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>90.90166666666666</v>
+        <v>108508.4409</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.100000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>90.64999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90.09999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>90.09999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>13769.5281</v>
+        <v>4071.5833</v>
       </c>
       <c r="G12" t="n">
-        <v>90.82666666666665</v>
+        <v>104436.8576</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8.500000000000014</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8.235294117647078</v>
-      </c>
-      <c r="L12" t="n">
-        <v>90.72</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>89.7</v>
+        <v>92</v>
       </c>
       <c r="D13" t="n">
-        <v>89.7</v>
+        <v>93.5</v>
       </c>
       <c r="E13" t="n">
-        <v>89.7</v>
+        <v>92</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5128</v>
+        <v>49849.2888</v>
       </c>
       <c r="G13" t="n">
-        <v>90.78666666666665</v>
+        <v>54587.56879999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8.800000000000011</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-44.82758620689636</v>
-      </c>
-      <c r="L13" t="n">
-        <v>90.76000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.7</v>
+        <v>92</v>
       </c>
       <c r="C14" t="n">
-        <v>89.7</v>
+        <v>92</v>
       </c>
       <c r="D14" t="n">
-        <v>89.7</v>
+        <v>92</v>
       </c>
       <c r="E14" t="n">
-        <v>89.7</v>
+        <v>92</v>
       </c>
       <c r="F14" t="n">
-        <v>420.1886</v>
+        <v>8341.135899999999</v>
       </c>
       <c r="G14" t="n">
-        <v>90.74833333333331</v>
+        <v>54587.56879999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.800000000000011</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-30.43478260869541</v>
-      </c>
-      <c r="L14" t="n">
-        <v>90.50000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>91.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>91.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>89.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>12724.9743</v>
+        <v>8341.1358</v>
       </c>
       <c r="G15" t="n">
-        <v>90.74499999999998</v>
+        <v>62928.70459999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10.90000000000001</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.44776119402989</v>
-      </c>
-      <c r="L15" t="n">
-        <v>90.57000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>89.09999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>89</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>89.09999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>89</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>4385.3606</v>
+        <v>27865.1302</v>
       </c>
       <c r="G16" t="n">
-        <v>90.69333333333331</v>
+        <v>62928.70459999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-21.27659574468084</v>
-      </c>
-      <c r="L16" t="n">
-        <v>90.36</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>89.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>90.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>90.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>89.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>14950</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>90.66666666666664</v>
+        <v>62928.70459999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J17" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.216494845360852</v>
-      </c>
-      <c r="L17" t="n">
-        <v>90.31</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>90.7</v>
+        <v>91.3</v>
       </c>
       <c r="C18" t="n">
-        <v>92.5</v>
+        <v>91.3</v>
       </c>
       <c r="D18" t="n">
-        <v>92.5</v>
+        <v>91.3</v>
       </c>
       <c r="E18" t="n">
-        <v>90.7</v>
+        <v>91.3</v>
       </c>
       <c r="F18" t="n">
-        <v>33316.6261</v>
+        <v>355.717</v>
       </c>
       <c r="G18" t="n">
-        <v>90.6733333333333</v>
+        <v>62572.98759999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J18" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23.07692307692309</v>
-      </c>
-      <c r="L18" t="n">
-        <v>90.58000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>90.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="C19" t="n">
-        <v>90.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="D19" t="n">
-        <v>90.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E19" t="n">
-        <v>90.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="F19" t="n">
-        <v>5600</v>
+        <v>7028.7622</v>
       </c>
       <c r="G19" t="n">
-        <v>90.65333333333329</v>
+        <v>69601.74979999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="J19" t="n">
-        <v>19.60000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-10.40000000000009</v>
-      </c>
-      <c r="L19" t="n">
-        <v>90.61000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>90</v>
+        <v>91.3</v>
       </c>
       <c r="C20" t="n">
-        <v>90</v>
+        <v>91.3</v>
       </c>
       <c r="D20" t="n">
-        <v>90</v>
+        <v>91.3</v>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>91.3</v>
       </c>
       <c r="F20" t="n">
-        <v>697.991</v>
+        <v>5178.4887</v>
       </c>
       <c r="G20" t="n">
-        <v>90.59166666666664</v>
+        <v>64423.26109999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="J20" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-11.11111111111116</v>
-      </c>
-      <c r="L20" t="n">
-        <v>90.47000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>90.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="C21" t="n">
-        <v>89.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="D21" t="n">
-        <v>90.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="E21" t="n">
-        <v>89.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="F21" t="n">
-        <v>6500</v>
+        <v>2869.9921</v>
       </c>
       <c r="G21" t="n">
-        <v>90.5683333333333</v>
+        <v>61553.26899999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J21" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-0.8849557522123405</v>
-      </c>
-      <c r="L21" t="n">
-        <v>90.32000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>90.48499999999999</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>91.8</v>
+        <v>91.2</v>
       </c>
       <c r="C22" t="n">
-        <v>91.8</v>
+        <v>91.2</v>
       </c>
       <c r="D22" t="n">
-        <v>91.8</v>
+        <v>91.2</v>
       </c>
       <c r="E22" t="n">
-        <v>91.8</v>
+        <v>91.2</v>
       </c>
       <c r="F22" t="n">
-        <v>408.4967</v>
+        <v>321.0987</v>
       </c>
       <c r="G22" t="n">
-        <v>90.5783333333333</v>
+        <v>61553.26899999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>21.69999999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>16.27906976744185</v>
-      </c>
-      <c r="L22" t="n">
-        <v>90.50000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>90.60999999999999</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>91.8</v>
+        <v>91.2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.8</v>
+        <v>91</v>
       </c>
       <c r="D23" t="n">
-        <v>91.8</v>
+        <v>91.2</v>
       </c>
       <c r="E23" t="n">
-        <v>91.8</v>
+        <v>91</v>
       </c>
       <c r="F23" t="n">
-        <v>122.549</v>
+        <v>15000</v>
       </c>
       <c r="G23" t="n">
-        <v>90.58833333333331</v>
+        <v>46553.26899999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>21.69999999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>16.27906976744185</v>
-      </c>
-      <c r="L23" t="n">
-        <v>90.71000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>90.73499999999999</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>91.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>91.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="D24" t="n">
-        <v>91.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>91.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="F24" t="n">
-        <v>552.6746000000001</v>
+        <v>10552.5005</v>
       </c>
       <c r="G24" t="n">
-        <v>90.59833333333331</v>
+        <v>46553.26899999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.299999999999997</v>
-      </c>
-      <c r="J24" t="n">
-        <v>21.89999999999999</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-1.818181818181846</v>
-      </c>
-      <c r="L24" t="n">
-        <v>90.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>90.69999999999999</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>91.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="C25" t="n">
-        <v>90.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>91.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="E25" t="n">
-        <v>90.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>22018.4539</v>
+        <v>12450</v>
       </c>
       <c r="G25" t="n">
-        <v>90.58499999999998</v>
+        <v>34103.26899999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J25" t="n">
-        <v>23.29999999999998</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12.50000000000006</v>
-      </c>
-      <c r="L25" t="n">
-        <v>90.74000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>90.655</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>90.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="D26" t="n">
-        <v>90.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="F26" t="n">
-        <v>8445</v>
+        <v>9000</v>
       </c>
       <c r="G26" t="n">
-        <v>90.57333333333331</v>
+        <v>25103.26899999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J26" t="n">
-        <v>23.29999999999998</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-3.703703703703678</v>
-      </c>
-      <c r="L26" t="n">
-        <v>90.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>90.61</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="C27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="D27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="E27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="F27" t="n">
-        <v>844</v>
+        <v>1714.2042</v>
       </c>
       <c r="G27" t="n">
-        <v>90.5633333333333</v>
+        <v>25103.26899999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="J27" t="n">
-        <v>23.29999999999998</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-37.70491803278696</v>
-      </c>
-      <c r="L27" t="n">
-        <v>90.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>90.57000000000001</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="C28" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="D28" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="E28" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="F28" t="n">
-        <v>14900</v>
+        <v>872.7909</v>
       </c>
       <c r="G28" t="n">
-        <v>90.5483333333333</v>
+        <v>25103.26899999997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J28" t="n">
-        <v>23.59999999999998</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-4.999999999999751</v>
-      </c>
-      <c r="L28" t="n">
-        <v>90.57000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>90.57500000000002</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="C29" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="D29" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="E29" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="F29" t="n">
-        <v>15000</v>
+        <v>1488.5905</v>
       </c>
       <c r="G29" t="n">
-        <v>90.53333333333329</v>
+        <v>25103.26899999997</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J29" t="n">
-        <v>23.59999999999998</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-2.564102564102433</v>
-      </c>
-      <c r="L29" t="n">
-        <v>90.55000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>90.58000000000001</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="C30" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="D30" t="n">
-        <v>89.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="E30" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="F30" t="n">
-        <v>8950</v>
+        <v>4022.39</v>
       </c>
       <c r="G30" t="n">
-        <v>90.50666666666662</v>
+        <v>25103.26899999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.09999999999999432</v>
-      </c>
-      <c r="J30" t="n">
-        <v>24.29999999999998</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-15.55555555555567</v>
-      </c>
-      <c r="L30" t="n">
-        <v>90.47000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>90.47000000000001</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="C31" t="n">
-        <v>88</v>
+        <v>90.8</v>
       </c>
       <c r="D31" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>90.8</v>
       </c>
       <c r="F31" t="n">
-        <v>20956.9302</v>
+        <v>348.6201</v>
       </c>
       <c r="G31" t="n">
-        <v>90.45999999999995</v>
+        <v>25103.26899999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J31" t="n">
-        <v>25.49999999999999</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>90.28000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>90.30000000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>90.41666666666664</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>87.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="C32" t="n">
-        <v>88</v>
+        <v>90.8</v>
       </c>
       <c r="D32" t="n">
-        <v>88</v>
+        <v>90.8</v>
       </c>
       <c r="E32" t="n">
-        <v>87.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="F32" t="n">
-        <v>970.5115</v>
+        <v>54183.366</v>
       </c>
       <c r="G32" t="n">
-        <v>90.41333333333327</v>
+        <v>25103.26899999997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J32" t="n">
-        <v>25.49999999999999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>89.90000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>90.20000000000002</v>
-      </c>
-      <c r="N32" t="n">
-        <v>90.37333333333329</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>88</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>88</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>88</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>88</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1129.1998</v>
+        <v>3560.276</v>
       </c>
       <c r="G33" t="n">
-        <v>90.3666666666666</v>
+        <v>21542.99299999997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.299999999999997</v>
-      </c>
-      <c r="J33" t="n">
-        <v>25.49999999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>89.52000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>90.11500000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>90.32999999999996</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>88</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>87.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>88</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>87.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>6084.75</v>
+        <v>895.8531</v>
       </c>
       <c r="G34" t="n">
-        <v>90.31999999999994</v>
+        <v>21542.99299999997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>25.69999999999999</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>89.14000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>90.02000000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>90.17999999999996</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>88</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>87.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>88</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>87.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>5494.0624</v>
       </c>
       <c r="G35" t="n">
-        <v>90.27333333333327</v>
+        <v>16048.93059999997</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25.69999999999999</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L35" t="n">
-        <v>88.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>89.82000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>90.06999999999996</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="C36" t="n">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="D36" t="n">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="E36" t="n">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="F36" t="n">
-        <v>900</v>
+        <v>2933.4108</v>
       </c>
       <c r="G36" t="n">
-        <v>90.27499999999993</v>
+        <v>13115.51979999997</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="J36" t="n">
-        <v>28.39999999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5.882352941176405</v>
-      </c>
-      <c r="L36" t="n">
-        <v>88.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>89.89500000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>90.04999999999997</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>89</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>89</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>89</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>89</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>849.4918</v>
+        <v>6373.186</v>
       </c>
       <c r="G37" t="n">
-        <v>90.25333333333327</v>
+        <v>6742.333799999975</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="J37" t="n">
-        <v>29.89999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-14.28571428571435</v>
-      </c>
-      <c r="L37" t="n">
-        <v>88.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>89.82000000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>89.98333333333331</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="C38" t="n">
-        <v>91.2</v>
+        <v>90.2</v>
       </c>
       <c r="D38" t="n">
-        <v>91.2</v>
+        <v>90.3</v>
       </c>
       <c r="E38" t="n">
         <v>90.2</v>
       </c>
       <c r="F38" t="n">
-        <v>8779.6801</v>
+        <v>15100.5705</v>
       </c>
       <c r="G38" t="n">
-        <v>90.27166666666659</v>
+        <v>21842.90429999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="J38" t="n">
-        <v>32.09999999999999</v>
-      </c>
-      <c r="K38" t="n">
-        <v>15.29411764705876</v>
-      </c>
-      <c r="L38" t="n">
-        <v>88.94000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>89.75500000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>90.02999999999996</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>91.09999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>91.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>91.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>91.09999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>2216.149</v>
+        <v>8481.891100000001</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28833333333326</v>
+        <v>13361.01319999997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.900000000000006</v>
-      </c>
-      <c r="J39" t="n">
-        <v>32.09999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>25.64102564102561</v>
-      </c>
-      <c r="L39" t="n">
-        <v>89.07000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>89.81000000000002</v>
-      </c>
-      <c r="N39" t="n">
-        <v>90.07666666666661</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>91.09999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>92</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>92</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>91.09999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>20578.9826</v>
+        <v>1084.7422</v>
       </c>
       <c r="G40" t="n">
-        <v>90.31999999999992</v>
+        <v>13361.01319999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.700000000000003</v>
-      </c>
-      <c r="J40" t="n">
-        <v>32.89999999999999</v>
-      </c>
-      <c r="K40" t="n">
-        <v>54.05405405405401</v>
-      </c>
-      <c r="L40" t="n">
-        <v>89.35000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>89.91000000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>90.09666666666661</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2326,753 +1854,2404 @@
         <v>90.3</v>
       </c>
       <c r="F41" t="n">
-        <v>690.527</v>
+        <v>7137.1506</v>
       </c>
       <c r="G41" t="n">
-        <v>90.32333333333325</v>
+        <v>20498.16379999997</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25.27472527472522</v>
-      </c>
-      <c r="L41" t="n">
-        <v>89.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>89.93000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>90.05999999999995</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="C42" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="D42" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="E42" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5518</v>
+        <v>19703.7819</v>
       </c>
       <c r="G42" t="n">
-        <v>90.32999999999991</v>
+        <v>40201.94569999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.400000000000006</v>
-      </c>
-      <c r="J42" t="n">
-        <v>35</v>
-      </c>
-      <c r="K42" t="n">
-        <v>28.42105263157893</v>
-      </c>
-      <c r="L42" t="n">
-        <v>89.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>89.87500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>90.08333333333327</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="C43" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D43" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="E43" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1931.775</v>
+        <v>7553.7588</v>
       </c>
       <c r="G43" t="n">
-        <v>90.32333333333324</v>
+        <v>32648.18689999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="J43" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>27.0833333333334</v>
-      </c>
-      <c r="L43" t="n">
-        <v>90.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>89.80500000000002</v>
-      </c>
-      <c r="N43" t="n">
-        <v>90.10666666666661</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90.7</v>
+        <v>92.8</v>
       </c>
       <c r="C44" t="n">
-        <v>90.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="D44" t="n">
-        <v>90.7</v>
+        <v>92.8</v>
       </c>
       <c r="E44" t="n">
-        <v>90.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F44" t="n">
-        <v>204.0758</v>
+        <v>80.2795</v>
       </c>
       <c r="G44" t="n">
-        <v>90.32833333333323</v>
+        <v>32728.46639999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J44" t="n">
-        <v>35.49999999999999</v>
-      </c>
-      <c r="K44" t="n">
-        <v>28.57142857142855</v>
-      </c>
-      <c r="L44" t="n">
-        <v>90.37000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>89.75500000000002</v>
-      </c>
-      <c r="N44" t="n">
-        <v>90.13666666666661</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90.3</v>
+        <v>91.8</v>
       </c>
       <c r="C45" t="n">
-        <v>90.3</v>
+        <v>91.8</v>
       </c>
       <c r="D45" t="n">
-        <v>90.3</v>
+        <v>91.8</v>
       </c>
       <c r="E45" t="n">
-        <v>90.3</v>
+        <v>91.8</v>
       </c>
       <c r="F45" t="n">
-        <v>444.6034</v>
+        <v>5965.697</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28666666666658</v>
+        <v>26762.76939999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>35.79999999999998</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-2.702702702702744</v>
-      </c>
-      <c r="L45" t="n">
-        <v>90.62000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>89.76000000000002</v>
-      </c>
-      <c r="N45" t="n">
-        <v>90.08666666666662</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="C46" t="n">
-        <v>90.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="D46" t="n">
-        <v>90.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="E46" t="n">
-        <v>90.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="F46" t="n">
-        <v>1885.137</v>
+        <v>7710.259</v>
       </c>
       <c r="G46" t="n">
-        <v>90.26666666666658</v>
+        <v>34473.02839999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J46" t="n">
-        <v>36.09999999999998</v>
-      </c>
-      <c r="K46" t="n">
-        <v>25.80645161290318</v>
-      </c>
-      <c r="L46" t="n">
-        <v>90.63000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>89.78</v>
-      </c>
-      <c r="N46" t="n">
-        <v>90.13999999999994</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>90.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="C47" t="n">
         <v>90.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>90.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="E47" t="n">
         <v>90.59999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1746.7459</v>
+        <v>16751.9497</v>
       </c>
       <c r="G47" t="n">
-        <v>90.22666666666659</v>
+        <v>17721.07869999997</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="J47" t="n">
-        <v>36.09999999999998</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-15.00000000000027</v>
-      </c>
-      <c r="L47" t="n">
-        <v>90.79000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="N47" t="n">
-        <v>90.14333333333327</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>90.3</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="D48" t="n">
-        <v>90.3</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="F48" t="n">
-        <v>6497.725</v>
+        <v>12919.7881</v>
       </c>
       <c r="G48" t="n">
-        <v>90.22166666666658</v>
+        <v>4801.290599999973</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>36.39999999999998</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-20.93023255813975</v>
-      </c>
-      <c r="L48" t="n">
-        <v>90.70000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>89.81999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>90.06999999999995</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="C49" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="D49" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="E49" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="F49" t="n">
-        <v>158.4968</v>
+        <v>8232.539500000001</v>
       </c>
       <c r="G49" t="n">
-        <v>90.22333333333326</v>
+        <v>4801.290599999973</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>36.39999999999998</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-48.57142857142885</v>
-      </c>
-      <c r="L49" t="n">
-        <v>90.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>89.83999999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>90.07666666666663</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="C50" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="D50" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="E50" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="F50" t="n">
-        <v>17204.0551</v>
+        <v>5694.8592</v>
       </c>
       <c r="G50" t="n">
-        <v>90.21833333333325</v>
+        <v>4801.290599999973</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J50" t="n">
-        <v>36.79999999999997</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-18.18181818181801</v>
-      </c>
-      <c r="L50" t="n">
-        <v>90.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>89.87499999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>90.0733333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="C51" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="D51" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E51" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="F51" t="n">
-        <v>985.0795000000001</v>
+        <v>500</v>
       </c>
       <c r="G51" t="n">
-        <v>90.21333333333324</v>
+        <v>4801.290599999973</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J51" t="n">
-        <v>36.79999999999997</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-44.44444444444506</v>
-      </c>
-      <c r="L51" t="n">
-        <v>90.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>89.97</v>
-      </c>
-      <c r="N51" t="n">
-        <v>90.0733333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="C52" t="n">
-        <v>89.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="D52" t="n">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E52" t="n">
-        <v>89.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="G52" t="n">
-        <v>90.20833333333324</v>
+        <v>301.290599999973</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J52" t="n">
-        <v>36.79999999999997</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-33.33333333333396</v>
-      </c>
-      <c r="L52" t="n">
-        <v>90.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>90.065</v>
-      </c>
-      <c r="N52" t="n">
-        <v>90.00999999999996</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>91</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>91</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>91</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>91</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>1001.6689</v>
+        <v>166.0001</v>
       </c>
       <c r="G53" t="n">
-        <v>90.23666666666658</v>
+        <v>135.290499999973</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="J53" t="n">
-        <v>37.89999999999996</v>
-      </c>
-      <c r="K53" t="n">
-        <v>16.66666666666706</v>
-      </c>
-      <c r="L53" t="n">
-        <v>90.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>90.215</v>
-      </c>
-      <c r="N53" t="n">
-        <v>89.98333333333329</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>90.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>90.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>90.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>90.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>270.1463</v>
+        <v>5614.6396</v>
       </c>
       <c r="G54" t="n">
-        <v>90.26666666666657</v>
+        <v>135.290499999973</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1.600000000000009</v>
-      </c>
-      <c r="J54" t="n">
-        <v>37.99999999999996</v>
-      </c>
-      <c r="K54" t="n">
-        <v>27.27272727272798</v>
-      </c>
-      <c r="L54" t="n">
-        <v>90.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>90.37</v>
-      </c>
-      <c r="N54" t="n">
-        <v>89.95999999999997</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22350.3696</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22485.66009999998</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C56" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E56" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>686.2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>21799.46009999997</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5766.1881</v>
+      </c>
+      <c r="G57" t="n">
+        <v>21799.46009999997</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C58" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>21799.46009999997</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>21</v>
+      </c>
+      <c r="G59" t="n">
+        <v>21820.46009999997</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C60" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D60" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1346.3054</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20474.15469999997</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="C61" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4855.0789</v>
+      </c>
+      <c r="G61" t="n">
+        <v>15619.07579999997</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3423.8072</v>
+      </c>
+      <c r="G62" t="n">
+        <v>15619.07579999997</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C63" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12362.5872</v>
+      </c>
+      <c r="G63" t="n">
+        <v>27981.66299999997</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C64" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E64" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F64" t="n">
+        <v>21</v>
+      </c>
+      <c r="G64" t="n">
+        <v>27960.66299999997</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E65" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>21</v>
+      </c>
+      <c r="G65" t="n">
+        <v>27960.66299999997</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>91</v>
+      </c>
+      <c r="D66" t="n">
+        <v>91</v>
+      </c>
+      <c r="E66" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>39335.6319</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-11374.96890000003</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1168.0745</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-12543.04340000003</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5497.0197</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-12543.04340000003</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5054</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-7489.04340000003</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="C70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.2997</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-7489.04340000003</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>90</v>
+      </c>
+      <c r="D71" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>90</v>
+      </c>
+      <c r="F71" t="n">
+        <v>13769.5281</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-21258.57150000003</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-21259.08430000003</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>420.1886</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-21259.08430000003</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12724.9743</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-8534.110000000028</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C75" t="n">
+        <v>89</v>
+      </c>
+      <c r="D75" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E75" t="n">
+        <v>89</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4385.3606</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-12919.47060000003</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>14950</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2030.529399999972</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>89</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>33316.6261</v>
+      </c>
+      <c r="G77" t="n">
+        <v>35347.15549999997</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G78" t="n">
+        <v>29747.15549999997</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>90</v>
+      </c>
+      <c r="C79" t="n">
+        <v>90</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90</v>
+      </c>
+      <c r="E79" t="n">
+        <v>90</v>
+      </c>
+      <c r="F79" t="n">
+        <v>697.991</v>
+      </c>
+      <c r="G79" t="n">
+        <v>29049.16449999997</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C80" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D80" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E80" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="D55" t="n">
+      <c r="F80" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G80" t="n">
+        <v>22549.16449999997</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>408.4967</v>
+      </c>
+      <c r="G81" t="n">
+        <v>22957.66119999997</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>122.549</v>
+      </c>
+      <c r="G82" t="n">
+        <v>22957.66119999997</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F83" t="n">
+        <v>552.6746000000001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>22404.98659999997</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E84" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>22018.4539</v>
+      </c>
+      <c r="G84" t="n">
+        <v>386.5326999999706</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8445</v>
+      </c>
+      <c r="G85" t="n">
+        <v>386.5326999999706</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>844</v>
+      </c>
+      <c r="G86" t="n">
+        <v>386.5326999999706</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="C87" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="E55" t="n">
+      <c r="D87" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E87" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="F55" t="n">
-        <v>2648.8512</v>
-      </c>
-      <c r="G55" t="n">
-        <v>90.27999999999989</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="J55" t="n">
-        <v>38.99999999999996</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-24.13793103448256</v>
-      </c>
-      <c r="L55" t="n">
-        <v>90.33</v>
-      </c>
-      <c r="M55" t="n">
-        <v>90.47500000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>89.94999999999997</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+      <c r="F87" t="n">
+        <v>14900</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-14513.46730000003</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="E88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-14513.46730000003</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8950</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-23463.46730000003</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>88</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20956.9302</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-44420.39750000003</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>88</v>
+      </c>
+      <c r="D91" t="n">
+        <v>88</v>
+      </c>
+      <c r="E91" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F91" t="n">
+        <v>970.5115</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-44420.39750000003</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>88</v>
+      </c>
+      <c r="C92" t="n">
+        <v>88</v>
+      </c>
+      <c r="D92" t="n">
+        <v>88</v>
+      </c>
+      <c r="E92" t="n">
+        <v>88</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1129.1998</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-44420.39750000003</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>88</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>88</v>
+      </c>
+      <c r="C93" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>88</v>
+      </c>
+      <c r="E93" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6084.75</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-50505.14750000003</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>88</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>88</v>
+      </c>
+      <c r="C94" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>88</v>
+      </c>
+      <c r="E94" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>500</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-50505.14750000003</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>900</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-49605.14750000003</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>89</v>
+      </c>
+      <c r="C96" t="n">
+        <v>89</v>
+      </c>
+      <c r="D96" t="n">
+        <v>89</v>
+      </c>
+      <c r="E96" t="n">
+        <v>89</v>
+      </c>
+      <c r="F96" t="n">
+        <v>849.4918</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-50454.63930000003</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8779.6801</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-41674.95920000003</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>89</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2216.149</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-41674.95920000003</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>92</v>
+      </c>
+      <c r="D99" t="n">
+        <v>92</v>
+      </c>
+      <c r="E99" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20578.9826</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-21095.97660000003</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>690.527</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-21786.50360000003</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>163.5518</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-21622.95180000003</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1931.775</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-23554.72680000003</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>204.0758</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-23350.65100000003</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-01 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>146304.1503</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>144709.5122</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>137497.1013</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>135804.517</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>54587.56879999997</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>62572.98759999997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>69601.74979999998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>64423.26109999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>61553.26899999997</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>26762.76939999998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>34473.02839999997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>17721.07869999997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>4801.290599999973</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>4801.290599999973</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-11374.96890000003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-12543.04340000003</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-7489.04340000003</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-7489.04340000003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,21 @@
         <v>-21258.57150000003</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2767,21 @@
         <v>-21259.08430000003</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2808,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,22 +2845,17 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3090,24 +2880,21 @@
         <v>-12919.47060000003</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>91.8</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3134,22 +2921,17 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>89</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,24 +2956,21 @@
         <v>35347.15549999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>90.5</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3216,22 +2995,21 @@
         <v>29747.15549999997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3258,20 +3036,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3296,22 +3071,21 @@
         <v>22549.16449999997</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3338,20 +3112,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3376,22 +3147,19 @@
         <v>22957.66119999997</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3418,20 +3186,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3458,20 +3223,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3498,20 +3260,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3538,20 +3297,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3578,20 +3334,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3616,22 +3369,19 @@
         <v>-14513.46730000003</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3656,22 +3406,19 @@
         <v>-23463.46730000003</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3698,22 +3445,17 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3740,20 +3482,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3780,22 +3519,17 @@
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>88</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3820,24 +3554,19 @@
         <v>-50505.14750000003</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>88</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3862,24 +3591,19 @@
         <v>-50505.14750000003</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3904,24 +3628,21 @@
         <v>-49605.14750000003</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>87.8</v>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3946,24 +3667,19 @@
         <v>-50454.63930000003</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3988,24 +3704,19 @@
         <v>-41674.95920000003</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>89</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4032,20 +3743,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4072,20 +3780,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4112,20 +3817,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4150,24 +3852,19 @@
         <v>-21622.95180000003</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4192,24 +3889,21 @@
         <v>-23554.72680000003</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>90.7</v>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4234,26 +3928,23 @@
         <v>-23350.65100000003</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-01 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>146304.1503</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>144709.5122</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>137497.1013</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>135804.517</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>161800.7408</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>108508.4409</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>104436.8576</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>54587.56879999997</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>54587.56879999997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>62572.98759999997</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>69601.74979999998</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>64423.26109999997</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>61553.26899999997</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>26762.76939999998</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>34473.02839999997</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>17721.07869999997</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>4801.290599999973</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>4801.290599999973</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-11374.96890000003</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2631,8 +2631,12 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2664,9 +2668,17 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2707,17 @@
         <v>-7489.04340000003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,15 +2746,15 @@
         <v>-21258.57150000003</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2767,12 +2785,12 @@
         <v>-21259.08430000003</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>90</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2806,10 +2824,14 @@
         <v>-21259.08430000003</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2845,8 +2867,12 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,12 +2906,14 @@
         <v>-12919.47060000003</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>91.8</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,8 +2949,12 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>89</v>
+      </c>
+      <c r="J76" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,12 +2988,14 @@
         <v>35347.15549999997</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>90.5</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2995,12 +3029,12 @@
         <v>29747.15549999997</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3034,10 +3068,14 @@
         <v>29049.16449999997</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="J79" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3071,12 +3109,12 @@
         <v>22549.16449999997</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>90</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3113,7 +3151,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3147,10 +3187,12 @@
         <v>22957.66119999997</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3187,7 +3229,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3224,7 +3268,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3261,7 +3307,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,7 +3346,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3335,7 +3385,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3369,10 +3421,12 @@
         <v>-14513.46730000003</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,10 +3460,12 @@
         <v>-23463.46730000003</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,8 +3501,12 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,10 +3540,14 @@
         <v>-44420.39750000003</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>88</v>
+      </c>
+      <c r="J91" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,8 +3583,12 @@
       <c r="H92" t="n">
         <v>1</v>
       </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>88</v>
+      </c>
+      <c r="J92" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,10 +3622,14 @@
         <v>-50505.14750000003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>88</v>
+      </c>
+      <c r="J93" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,10 +3663,14 @@
         <v>-50505.14750000003</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J94" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,12 +3704,14 @@
         <v>-49605.14750000003</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>87.8</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,10 +3745,14 @@
         <v>-50454.63930000003</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,10 +3786,14 @@
         <v>-41674.95920000003</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>89</v>
+      </c>
+      <c r="J97" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,7 +3830,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3781,7 +3869,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,7 +3908,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,7 +3947,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,12 +3983,12 @@
         <v>-23554.72680000003</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3928,12 +4022,12 @@
         <v>-23350.65100000003</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,6 +4039,6 @@
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-01 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>146304.1503</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>144709.5122</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>137497.1013</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>137516.166</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>137527.166</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>170446.0527</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>108508.4409</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>104436.8576</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>54587.56879999997</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>62928.70459999997</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>62572.98759999997</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>69601.74979999998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>61553.26899999997</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2629,14 +2629,10 @@
         <v>-12543.04340000003</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>89.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2666,1016 +2662,842 @@
         <v>-7489.04340000003</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="C70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E70" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.2997</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-7489.04340000003</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>90</v>
+      </c>
+      <c r="D71" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>90</v>
+      </c>
+      <c r="F71" t="n">
+        <v>13769.5281</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-21258.57150000003</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E72" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-21259.08430000003</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>420.1886</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-21259.08430000003</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12724.9743</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-8534.110000000028</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C75" t="n">
+        <v>89</v>
+      </c>
+      <c r="D75" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E75" t="n">
+        <v>89</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4385.3606</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-12919.47060000003</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
         <v>89.8</v>
       </c>
-      <c r="J69" t="n">
+      <c r="C76" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E76" t="n">
         <v>89.8</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="F76" t="n">
+        <v>14950</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2030.529399999972</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>33316.6261</v>
+      </c>
+      <c r="G77" t="n">
+        <v>35347.15549999997</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G78" t="n">
+        <v>29747.15549999997</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>90</v>
+      </c>
+      <c r="C79" t="n">
+        <v>90</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90</v>
+      </c>
+      <c r="E79" t="n">
+        <v>90</v>
+      </c>
+      <c r="F79" t="n">
+        <v>697.991</v>
+      </c>
+      <c r="G79" t="n">
+        <v>29049.16449999997</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="E80" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6500</v>
+      </c>
+      <c r="G80" t="n">
+        <v>22549.16449999997</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E81" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>408.4967</v>
+      </c>
+      <c r="G81" t="n">
+        <v>22957.66119999997</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>122.549</v>
+      </c>
+      <c r="G82" t="n">
+        <v>22957.66119999997</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E83" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F83" t="n">
+        <v>552.6746000000001</v>
+      </c>
+      <c r="G83" t="n">
+        <v>22404.98659999997</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E84" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>22018.4539</v>
+      </c>
+      <c r="G84" t="n">
+        <v>386.5326999999706</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8445</v>
+      </c>
+      <c r="G85" t="n">
+        <v>386.5326999999706</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>844</v>
+      </c>
+      <c r="G86" t="n">
+        <v>386.5326999999706</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F87" t="n">
+        <v>14900</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-14513.46730000003</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="E88" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-14513.46730000003</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8950</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-23463.46730000003</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>88</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20956.9302</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-44420.39750000003</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>88</v>
+      </c>
+      <c r="D91" t="n">
+        <v>88</v>
+      </c>
+      <c r="E91" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="F91" t="n">
+        <v>970.5115</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-44420.39750000003</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>88</v>
+      </c>
+      <c r="C92" t="n">
+        <v>88</v>
+      </c>
+      <c r="D92" t="n">
+        <v>88</v>
+      </c>
+      <c r="E92" t="n">
+        <v>88</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1129.1998</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-44420.39750000003</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>88</v>
+      </c>
+      <c r="C93" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>88</v>
+      </c>
+      <c r="E93" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6084.75</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-50505.14750000003</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>88</v>
+      </c>
+      <c r="C94" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>88</v>
+      </c>
+      <c r="E94" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>500</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-50505.14750000003</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="C70" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="D70" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="E70" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.2997</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-7489.04340000003</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="C71" t="n">
-        <v>90</v>
-      </c>
-      <c r="D71" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="E71" t="n">
-        <v>90</v>
-      </c>
-      <c r="F71" t="n">
-        <v>13769.5281</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-21258.57150000003</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C72" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D72" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E72" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.5128</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-21259.08430000003</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C73" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D73" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>420.1886</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-21259.08430000003</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>12724.9743</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-8534.110000000028</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C75" t="n">
-        <v>89</v>
-      </c>
-      <c r="D75" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E75" t="n">
-        <v>89</v>
-      </c>
-      <c r="F75" t="n">
-        <v>4385.3606</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-12919.47060000003</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="D76" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E76" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>14950</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2030.529399999972</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>89</v>
-      </c>
-      <c r="J76" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D77" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E77" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>33316.6261</v>
-      </c>
-      <c r="G77" t="n">
-        <v>35347.15549999997</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="C78" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="D78" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="E78" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="F78" t="n">
-        <v>5600</v>
-      </c>
-      <c r="G78" t="n">
-        <v>29747.15549999997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>90</v>
-      </c>
-      <c r="C79" t="n">
-        <v>90</v>
-      </c>
-      <c r="D79" t="n">
-        <v>90</v>
-      </c>
-      <c r="E79" t="n">
-        <v>90</v>
-      </c>
-      <c r="F79" t="n">
-        <v>697.991</v>
-      </c>
-      <c r="G79" t="n">
-        <v>29049.16449999997</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="C80" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D80" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="E80" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="F80" t="n">
-        <v>6500</v>
-      </c>
-      <c r="G80" t="n">
-        <v>22549.16449999997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="C81" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="D81" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="E81" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="F81" t="n">
-        <v>408.4967</v>
-      </c>
-      <c r="G81" t="n">
-        <v>22957.66119999997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="D82" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="E82" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>122.549</v>
-      </c>
-      <c r="G82" t="n">
-        <v>22957.66119999997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="C83" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="D83" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="E83" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="F83" t="n">
-        <v>552.6746000000001</v>
-      </c>
-      <c r="G83" t="n">
-        <v>22404.98659999997</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="C84" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="E84" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>22018.4539</v>
-      </c>
-      <c r="G84" t="n">
-        <v>386.5326999999706</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="C85" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="D85" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="E85" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="F85" t="n">
-        <v>8445</v>
-      </c>
-      <c r="G85" t="n">
-        <v>386.5326999999706</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="D86" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>844</v>
-      </c>
-      <c r="G86" t="n">
-        <v>386.5326999999706</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D87" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="E87" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="F87" t="n">
-        <v>14900</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-14513.46730000003</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="C88" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="D88" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="E88" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="F88" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-14513.46730000003</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="C89" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="E89" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="F89" t="n">
-        <v>8950</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-23463.46730000003</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>88</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>88</v>
-      </c>
-      <c r="F90" t="n">
-        <v>20956.9302</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-44420.39750000003</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="C91" t="n">
-        <v>88</v>
-      </c>
-      <c r="D91" t="n">
-        <v>88</v>
-      </c>
-      <c r="E91" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="F91" t="n">
-        <v>970.5115</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-44420.39750000003</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>88</v>
-      </c>
-      <c r="J91" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>88</v>
-      </c>
-      <c r="C92" t="n">
-        <v>88</v>
-      </c>
-      <c r="D92" t="n">
-        <v>88</v>
-      </c>
-      <c r="E92" t="n">
-        <v>88</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1129.1998</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-44420.39750000003</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88</v>
-      </c>
-      <c r="J92" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>88</v>
-      </c>
-      <c r="C93" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D93" t="n">
-        <v>88</v>
-      </c>
-      <c r="E93" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F93" t="n">
-        <v>6084.75</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-50505.14750000003</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>88</v>
-      </c>
-      <c r="J93" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>88</v>
-      </c>
-      <c r="C94" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="D94" t="n">
-        <v>88</v>
-      </c>
-      <c r="E94" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F94" t="n">
-        <v>500</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-50505.14750000003</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J94" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3709,9 +3531,7 @@
       <c r="I95" t="n">
         <v>87.8</v>
       </c>
-      <c r="J95" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,14 +3565,10 @@
         <v>-50454.63930000003</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>89.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,14 +3602,10 @@
         <v>-41674.95920000003</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>89</v>
-      </c>
-      <c r="J97" t="n">
-        <v>89.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,9 +3642,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3869,9 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,12 +3713,10 @@
         <v>-21786.50360000003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,12 +3750,10 @@
         <v>-21622.95180000003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,12 +3787,10 @@
         <v>-23554.72680000003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4025,9 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4039,6 +3839,6 @@
       <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-01 BackTest CTXC.xlsx
@@ -616,7 +616,7 @@
         <v>135804.517</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>170446.0527</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>161800.7408</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>54587.56879999997</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3454,11 +3454,17 @@
         <v>-50505.14750000003</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>88</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3495,7 +3501,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3565,9 +3571,11 @@
         <v>-50454.63930000003</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>90.5</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3713,7 +3721,7 @@
         <v>-21786.50360000003</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3750,7 +3758,7 @@
         <v>-21622.95180000003</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3787,9 +3795,11 @@
         <v>-23554.72680000003</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>90.7</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>

--- a/BackTest/2019-11-01 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-01 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>26622.7662</v>
       </c>
       <c r="G2" t="n">
-        <v>146304.1503</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1594.6381</v>
       </c>
       <c r="G3" t="n">
-        <v>144709.5122</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>7212.4109</v>
       </c>
       <c r="G4" t="n">
-        <v>137497.1013</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>19.0647</v>
       </c>
       <c r="G5" t="n">
-        <v>137516.166</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>137527.166</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1722.649</v>
       </c>
       <c r="G7" t="n">
-        <v>135804.517</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>34641.5357</v>
       </c>
       <c r="G8" t="n">
-        <v>170446.0527</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>8645.311900000001</v>
       </c>
       <c r="G9" t="n">
-        <v>161800.7408</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>53303.2999</v>
       </c>
       <c r="G10" t="n">
-        <v>108497.4409</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>108508.4409</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4071.5833</v>
       </c>
       <c r="G12" t="n">
-        <v>104436.8576</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>49849.2888</v>
       </c>
       <c r="G13" t="n">
-        <v>54587.56879999997</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>8341.135899999999</v>
       </c>
       <c r="G14" t="n">
-        <v>54587.56879999997</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8341.1358</v>
       </c>
       <c r="G15" t="n">
-        <v>62928.70459999997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>27865.1302</v>
       </c>
       <c r="G16" t="n">
-        <v>62928.70459999997</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>62928.70459999997</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>355.717</v>
       </c>
       <c r="G18" t="n">
-        <v>62572.98759999997</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7028.7622</v>
       </c>
       <c r="G19" t="n">
-        <v>69601.74979999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5178.4887</v>
       </c>
       <c r="G20" t="n">
-        <v>64423.26109999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2869.9921</v>
       </c>
       <c r="G21" t="n">
-        <v>61553.26899999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>321.0987</v>
       </c>
       <c r="G22" t="n">
-        <v>61553.26899999997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>15000</v>
       </c>
       <c r="G23" t="n">
-        <v>46553.26899999997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>10552.5005</v>
       </c>
       <c r="G24" t="n">
-        <v>46553.26899999997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>12450</v>
       </c>
       <c r="G25" t="n">
-        <v>34103.26899999997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>9000</v>
       </c>
       <c r="G26" t="n">
-        <v>25103.26899999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1714.2042</v>
       </c>
       <c r="G27" t="n">
-        <v>25103.26899999997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>872.7909</v>
       </c>
       <c r="G28" t="n">
-        <v>25103.26899999997</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1488.5905</v>
       </c>
       <c r="G29" t="n">
-        <v>25103.26899999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>4022.39</v>
       </c>
       <c r="G30" t="n">
-        <v>25103.26899999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>348.6201</v>
       </c>
       <c r="G31" t="n">
-        <v>25103.26899999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>54183.366</v>
       </c>
       <c r="G32" t="n">
-        <v>25103.26899999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3560.276</v>
       </c>
       <c r="G33" t="n">
-        <v>21542.99299999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>895.8531</v>
       </c>
       <c r="G34" t="n">
-        <v>21542.99299999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>5494.0624</v>
       </c>
       <c r="G35" t="n">
-        <v>16048.93059999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2933.4108</v>
       </c>
       <c r="G36" t="n">
-        <v>13115.51979999997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>6373.186</v>
       </c>
       <c r="G37" t="n">
-        <v>6742.333799999975</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>15100.5705</v>
       </c>
       <c r="G38" t="n">
-        <v>21842.90429999997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>8481.891100000001</v>
       </c>
       <c r="G39" t="n">
-        <v>13361.01319999997</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1084.7422</v>
       </c>
       <c r="G40" t="n">
-        <v>13361.01319999997</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>7137.1506</v>
       </c>
       <c r="G41" t="n">
-        <v>20498.16379999997</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>19703.7819</v>
       </c>
       <c r="G42" t="n">
-        <v>40201.94569999997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>7553.7588</v>
       </c>
       <c r="G43" t="n">
-        <v>32648.18689999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>80.2795</v>
       </c>
       <c r="G44" t="n">
-        <v>32728.46639999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>5965.697</v>
       </c>
       <c r="G45" t="n">
-        <v>26762.76939999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>7710.259</v>
       </c>
       <c r="G46" t="n">
-        <v>34473.02839999997</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>16751.9497</v>
       </c>
       <c r="G47" t="n">
-        <v>17721.07869999997</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>12919.7881</v>
       </c>
       <c r="G48" t="n">
-        <v>4801.290599999973</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>8232.539500000001</v>
       </c>
       <c r="G49" t="n">
-        <v>4801.290599999973</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>5694.8592</v>
       </c>
       <c r="G50" t="n">
-        <v>4801.290599999973</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,19 @@
         <v>500</v>
       </c>
       <c r="G51" t="n">
-        <v>4801.290599999973</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1947,23 @@
         <v>4500</v>
       </c>
       <c r="G52" t="n">
-        <v>301.290599999973</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1985,21 @@
         <v>166.0001</v>
       </c>
       <c r="G53" t="n">
-        <v>135.290499999973</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2021,23 @@
         <v>5614.6396</v>
       </c>
       <c r="G54" t="n">
-        <v>135.290499999973</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2059,23 @@
         <v>22350.3696</v>
       </c>
       <c r="G55" t="n">
-        <v>22485.66009999998</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="I55" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2097,21 @@
         <v>686.2</v>
       </c>
       <c r="G56" t="n">
-        <v>21799.46009999997</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2133,21 @@
         <v>5766.1881</v>
       </c>
       <c r="G57" t="n">
-        <v>21799.46009999997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2169,23 @@
         <v>7999</v>
       </c>
       <c r="G58" t="n">
-        <v>21799.46009999997</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2207,21 @@
         <v>21</v>
       </c>
       <c r="G59" t="n">
-        <v>21820.46009999997</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2243,21 @@
         <v>1346.3054</v>
       </c>
       <c r="G60" t="n">
-        <v>20474.15469999997</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2279,21 @@
         <v>4855.0789</v>
       </c>
       <c r="G61" t="n">
-        <v>15619.07579999997</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2315,21 @@
         <v>3423.8072</v>
       </c>
       <c r="G62" t="n">
-        <v>15619.07579999997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2351,21 @@
         <v>12362.5872</v>
       </c>
       <c r="G63" t="n">
-        <v>27981.66299999997</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2387,21 @@
         <v>21</v>
       </c>
       <c r="G64" t="n">
-        <v>27960.66299999997</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2423,21 @@
         <v>21</v>
       </c>
       <c r="G65" t="n">
-        <v>27960.66299999997</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2459,21 @@
         <v>39335.6319</v>
       </c>
       <c r="G66" t="n">
-        <v>-11374.96890000003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2495,21 @@
         <v>1168.0745</v>
       </c>
       <c r="G67" t="n">
-        <v>-12543.04340000003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2531,21 @@
         <v>5497.0197</v>
       </c>
       <c r="G68" t="n">
-        <v>-12543.04340000003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2567,21 @@
         <v>5054</v>
       </c>
       <c r="G69" t="n">
-        <v>-7489.04340000003</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2603,21 @@
         <v>0.2997</v>
       </c>
       <c r="G70" t="n">
-        <v>-7489.04340000003</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2639,21 @@
         <v>13769.5281</v>
       </c>
       <c r="G71" t="n">
-        <v>-21258.57150000003</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2675,21 @@
         <v>0.5128</v>
       </c>
       <c r="G72" t="n">
-        <v>-21259.08430000003</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2711,21 @@
         <v>420.1886</v>
       </c>
       <c r="G73" t="n">
-        <v>-21259.08430000003</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2747,21 @@
         <v>12724.9743</v>
       </c>
       <c r="G74" t="n">
-        <v>-8534.110000000028</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2783,21 @@
         <v>4385.3606</v>
       </c>
       <c r="G75" t="n">
-        <v>-12919.47060000003</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2819,21 @@
         <v>14950</v>
       </c>
       <c r="G76" t="n">
-        <v>2030.529399999972</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2855,21 @@
         <v>33316.6261</v>
       </c>
       <c r="G77" t="n">
-        <v>35347.15549999997</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2891,21 @@
         <v>5600</v>
       </c>
       <c r="G78" t="n">
-        <v>29747.15549999997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2927,21 @@
         <v>697.991</v>
       </c>
       <c r="G79" t="n">
-        <v>29049.16449999997</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2963,21 @@
         <v>6500</v>
       </c>
       <c r="G80" t="n">
-        <v>22549.16449999997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2999,21 @@
         <v>408.4967</v>
       </c>
       <c r="G81" t="n">
-        <v>22957.66119999997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3035,21 @@
         <v>122.549</v>
       </c>
       <c r="G82" t="n">
-        <v>22957.66119999997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3071,21 @@
         <v>552.6746000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>22404.98659999997</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3107,21 @@
         <v>22018.4539</v>
       </c>
       <c r="G84" t="n">
-        <v>386.5326999999706</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3143,21 @@
         <v>8445</v>
       </c>
       <c r="G85" t="n">
-        <v>386.5326999999706</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3179,21 @@
         <v>844</v>
       </c>
       <c r="G86" t="n">
-        <v>386.5326999999706</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3215,21 @@
         <v>14900</v>
       </c>
       <c r="G87" t="n">
-        <v>-14513.46730000003</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3251,21 @@
         <v>15000</v>
       </c>
       <c r="G88" t="n">
-        <v>-14513.46730000003</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3287,21 @@
         <v>8950</v>
       </c>
       <c r="G89" t="n">
-        <v>-23463.46730000003</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3323,21 @@
         <v>20956.9302</v>
       </c>
       <c r="G90" t="n">
-        <v>-44420.39750000003</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3359,21 @@
         <v>970.5115</v>
       </c>
       <c r="G91" t="n">
-        <v>-44420.39750000003</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3395,21 @@
         <v>1129.1998</v>
       </c>
       <c r="G92" t="n">
-        <v>-44420.39750000003</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,24 +3431,21 @@
         <v>6084.75</v>
       </c>
       <c r="G93" t="n">
-        <v>-50505.14750000003</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>88</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3490,24 +3467,21 @@
         <v>500</v>
       </c>
       <c r="G94" t="n">
-        <v>-50505.14750000003</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3529,24 +3503,21 @@
         <v>900</v>
       </c>
       <c r="G95" t="n">
-        <v>-49605.14750000003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3568,24 +3539,21 @@
         <v>849.4918</v>
       </c>
       <c r="G96" t="n">
-        <v>-50454.63930000003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3607,22 +3575,21 @@
         <v>8779.6801</v>
       </c>
       <c r="G97" t="n">
-        <v>-41674.95920000003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3644,22 +3611,21 @@
         <v>2216.149</v>
       </c>
       <c r="G98" t="n">
-        <v>-41674.95920000003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3681,22 +3647,21 @@
         <v>20578.9826</v>
       </c>
       <c r="G99" t="n">
-        <v>-21095.97660000003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3718,22 +3683,21 @@
         <v>690.527</v>
       </c>
       <c r="G100" t="n">
-        <v>-21786.50360000003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3755,22 +3719,21 @@
         <v>163.5518</v>
       </c>
       <c r="G101" t="n">
-        <v>-21622.95180000003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3792,24 +3755,21 @@
         <v>1931.775</v>
       </c>
       <c r="G102" t="n">
-        <v>-23554.72680000003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3831,22 +3791,21 @@
         <v>204.0758</v>
       </c>
       <c r="G103" t="n">
-        <v>-23350.65100000003</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
